--- a/Team/Project/KateCoulter-PeerEval-MLFinalProject.xlsx
+++ b/Team/Project/KateCoulter-PeerEval-MLFinalProject.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8623F92A-3C74-6F43-8E19-0AE9214DA5C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50DFD7-CEB6-3045-A2DA-6D6C0ED1610C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$21</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -312,13 +315,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,16 +606,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:I18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="5" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="2.83203125" customWidth="1"/>
-    <col min="7" max="11" width="5" customWidth="1"/>
+    <col min="7" max="11" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -621,17 +624,17 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -975,17 +978,17 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -994,76 +997,76 @@
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1076,6 +1079,6 @@
     <mergeCell ref="B19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>